--- a/SO SACH - LA/CONG NO/No Vay EIB.xlsx
+++ b/SO SACH - LA/CONG NO/No Vay EIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="11"/>
+    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="T01 15" sheetId="33" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="T10" sheetId="44" r:id="rId10"/>
     <sheet name="T11" sheetId="45" r:id="rId11"/>
     <sheet name="12" sheetId="46" r:id="rId12"/>
+    <sheet name="12 (2)" sheetId="47" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12 (2)'!$A$3:$S$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T01 15'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T02 15'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'T03 15'!$A$3:$S$24</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="105">
   <si>
     <t>Stt</t>
   </si>
@@ -351,6 +353,9 @@
   </si>
   <si>
     <t>1402LDS201504108</t>
+  </si>
+  <si>
+    <t>1015LDS201600190</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1075,7 @@
     <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1593,17 +1598,14 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="16" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,6 +1621,18 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2049,47 +2063,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2135,8 +2149,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2367,10 +2381,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3157,10 +3171,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="180"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3500,10 +3514,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="180"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3578,11 +3592,6 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3590,6 +3599,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3664,47 +3678,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3750,8 +3764,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -3983,10 +3997,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4248,10 +4262,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4799,10 +4813,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="180"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5645,10 +5659,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="180" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="180"/>
+      <c r="B43" s="188"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5827,47 +5841,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5913,8 +5927,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6146,10 +6160,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6415,10 +6429,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6975,10 +6989,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="180"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7823,10 +7837,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="180" t="s">
+      <c r="A43" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="180"/>
+      <c r="B43" s="188"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -7943,7 +7957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -8005,47 +8019,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8091,8 +8105,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8324,10 +8338,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -8640,10 +8654,10 @@
       <c r="S15" s="159"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="181"/>
+      <c r="B16" s="189"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -9146,10 +9160,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="180" t="s">
+      <c r="A27" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="180"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -10067,10 +10081,10 @@
       <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="180"/>
+      <c r="B45" s="188"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="65">
@@ -10162,6 +10176,2218 @@
   <sortState ref="A10:T14">
     <sortCondition ref="C10:C14"/>
   </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="6.75" style="13" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
+        <v>42388</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22">
+        <v>42385</v>
+      </c>
+      <c r="P1" s="22">
+        <v>42375</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>42387</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="181" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="182" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="180" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
+    </row>
+    <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="113">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>40200</v>
+      </c>
+      <c r="D4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
+        <v>13915</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="54">
+        <v>13915</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82">
+        <f>F4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115">
+        <f>IF((LEFT(B4,4)="1402"),E4*Q4*DATEDIF(P4,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="115">
+        <f>IF((LEFT(B4,4)="1015"),F4*R4*DATEDIF(Q4,$P$1,"d")/360,0)</f>
+        <v>53.920625000000001</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>42344</v>
+      </c>
+      <c r="R4" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S4" s="117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="53">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D5" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
+        <v>33319.39</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="28">
+        <v>33319.39</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23">
+        <f>F5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24">
+        <f>IF((LEFT(B5,4)="1402"),E5*Q5*DATEDIF(P5,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
+        <f>IF((LEFT(B5,4)="1015"),F5*R5*DATEDIF(Q5,$P$1,"d")/360,0)</f>
+        <v>129.11263624999998</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>42344</v>
+      </c>
+      <c r="R5" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="53">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D6" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <v>20515.96</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="28">
+        <v>20515.96</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <f>F6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24">
+        <f>IF((LEFT(B6,4)="1402"),E6*Q6*DATEDIF(P6,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <f>IF((LEFT(B6,4)="1015"),F6*R6*DATEDIF(Q6,$P$1,"d")/360,0)</f>
+        <v>79.499344999999991</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>42344</v>
+      </c>
+      <c r="R6" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="53">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D7" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="28">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <f>F7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <f>IF((LEFT(B7,4)="1402"),E7*Q7*DATEDIF(P7,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <f>IF((LEFT(B7,4)="1015"),F7*R7*DATEDIF(Q7,$P$1,"d")/360,0)</f>
+        <v>111.28759749999998</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>42344</v>
+      </c>
+      <c r="R7" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="189"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66">
+        <f>SUM(F4:F8)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="G9" s="65">
+        <f>SUM(G4:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66">
+        <f>SUM(J4:J7)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66">
+        <f>SUM(L4:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65">
+        <f>SUM(N4:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
+        <f>SUM(O4:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="66">
+        <f>SUM(P4:P7)</f>
+        <v>373.82020374999991</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+    </row>
+    <row r="10" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="135">
+        <f>ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="148">
+        <v>42234</v>
+      </c>
+      <c r="D10" s="148">
+        <v>42418</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140">
+        <v>52300</v>
+      </c>
+      <c r="G10" s="149">
+        <v>1151700000</v>
+      </c>
+      <c r="H10" s="148"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140">
+        <f>F10-J10</f>
+        <v>52300</v>
+      </c>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140">
+        <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
+        <v>180.14444444444445</v>
+      </c>
+      <c r="P10" s="140">
+        <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="134">
+        <v>42354</v>
+      </c>
+      <c r="R10" s="150">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="135">
+        <f>ROW()-9</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="137">
+        <v>42340</v>
+      </c>
+      <c r="D11" s="137">
+        <v>42523</v>
+      </c>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138">
+        <v>70900</v>
+      </c>
+      <c r="G11" s="139">
+        <v>2019360000</v>
+      </c>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140">
+        <f>F11-J11</f>
+        <v>70900</v>
+      </c>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138">
+        <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
+        <v>354.5</v>
+      </c>
+      <c r="P11" s="138">
+        <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="134">
+        <v>42340</v>
+      </c>
+      <c r="R11" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S11" s="142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="135">
+        <f>ROW()-9</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="137">
+        <v>42346</v>
+      </c>
+      <c r="D12" s="137">
+        <v>42529</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>62000</v>
+      </c>
+      <c r="G12" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140">
+        <f>F12-J12</f>
+        <v>62000</v>
+      </c>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138">
+        <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
+        <v>268.66666666666669</v>
+      </c>
+      <c r="P12" s="138">
+        <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="134">
+        <v>42346</v>
+      </c>
+      <c r="R12" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S12" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="33"/>
+    </row>
+    <row r="13" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="135">
+        <f>ROW()-9</f>
+        <v>4</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="137">
+        <v>42348</v>
+      </c>
+      <c r="D13" s="137">
+        <v>42531</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
+        <v>33000</v>
+      </c>
+      <c r="G13" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140">
+        <f>F13-J13</f>
+        <v>33000</v>
+      </c>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138">
+        <f>IF((LEFT(B13,4)="1402"),F13*R13*DATEDIF(Q13,O$1,"d")/360,0)</f>
+        <v>135.66666666666666</v>
+      </c>
+      <c r="P13" s="138">
+        <f>IF((LEFT(B13,4)="1015"),F13*R13*DATEDIF(Q13,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="134">
+        <v>42348</v>
+      </c>
+      <c r="R13" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S13" s="142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="135">
+        <f>ROW()-9</f>
+        <v>5</v>
+      </c>
+      <c r="B14" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="137">
+        <v>42363</v>
+      </c>
+      <c r="D14" s="137">
+        <v>42546</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138">
+        <v>43000</v>
+      </c>
+      <c r="G14" s="139">
+        <v>926064000</v>
+      </c>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140">
+        <f>F14-J14</f>
+        <v>43000</v>
+      </c>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138">
+        <f>IF((LEFT(B14,4)="1402"),F14*R14*DATEDIF(Q14,O$1,"d")/360,0)</f>
+        <v>105.11111111111111</v>
+      </c>
+      <c r="P14" s="138">
+        <f>IF((LEFT(B14,4)="1015"),F14*R14*DATEDIF(Q14,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="134">
+        <v>42363</v>
+      </c>
+      <c r="R14" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S14" s="142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="159"/>
+    </row>
+    <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="189"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
+        <f>SUM(F10:F15)</f>
+        <v>261200</v>
+      </c>
+      <c r="G16" s="65">
+        <f>SUM(G9:G13)</f>
+        <v>6645440000</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66">
+        <f>SUM(J10:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66">
+        <f>SUM(L10:L15)</f>
+        <v>261200</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65">
+        <f>SUM(N9:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="66">
+        <f>SUM(O10:O15)</f>
+        <v>1044.088888888889</v>
+      </c>
+      <c r="P16" s="66">
+        <f>SUM(P10:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="83">
+        <f t="shared" ref="A17:A25" si="0">ROW()-15</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="30">
+        <v>42394</v>
+      </c>
+      <c r="D17" s="30">
+        <v>42668</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <v>97000</v>
+      </c>
+      <c r="G17" s="97">
+        <v>1965255000</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81">
+        <f t="shared" ref="L17:L25" si="1">F17-J17</f>
+        <v>97000</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="23">
+        <f t="shared" ref="O17:O25" si="2">IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" ref="P17:P25" si="3">IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <v>334.11111111111109</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>42356</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="30">
+        <v>42247</v>
+      </c>
+      <c r="D18" s="30">
+        <v>42429</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
+        <v>82000</v>
+      </c>
+      <c r="G18" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81">
+        <f t="shared" si="1"/>
+        <v>82000</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="3"/>
+        <v>273.33333333333331</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>42357</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="30">
+        <v>42250</v>
+      </c>
+      <c r="D19" s="30">
+        <v>42432</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>40000</v>
+      </c>
+      <c r="G19" s="92">
+        <v>1997238540</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="3"/>
+        <v>128.88888888888889</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>42358</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="30">
+        <v>42251</v>
+      </c>
+      <c r="D20" s="30">
+        <v>42433</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>50000</v>
+      </c>
+      <c r="G20" s="92">
+        <v>1997238540</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="3"/>
+        <v>155.55555555555554</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>42359</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="33"/>
+    </row>
+    <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="30">
+        <v>42278</v>
+      </c>
+      <c r="D21" s="30">
+        <v>42552</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23">
+        <v>89500</v>
+      </c>
+      <c r="G21" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="81">
+        <f t="shared" si="1"/>
+        <v>89500</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" si="3"/>
+        <v>268.5</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>42360</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" s="143"/>
+    </row>
+    <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="30">
+        <v>42279</v>
+      </c>
+      <c r="D22" s="30">
+        <v>42553</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23">
+        <v>89000</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="81">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" si="3"/>
+        <v>257.11111111111109</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>42361</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S22" s="37"/>
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="30">
+        <v>42328</v>
+      </c>
+      <c r="D23" s="30">
+        <v>42602</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>61000</v>
+      </c>
+      <c r="G23" s="92"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="81">
+        <f t="shared" si="1"/>
+        <v>61000</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" si="3"/>
+        <v>169.44444444444446</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>42362</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="41"/>
+    </row>
+    <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="30">
+        <v>42339</v>
+      </c>
+      <c r="D24" s="30">
+        <v>42614</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23">
+        <v>89000</v>
+      </c>
+      <c r="G24" s="92"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="81">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" si="3"/>
+        <v>474.66666666666669</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>42339</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S24" s="37"/>
+      <c r="T24" s="41"/>
+    </row>
+    <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="88">
+        <v>42360</v>
+      </c>
+      <c r="D25" s="30">
+        <v>42635</v>
+      </c>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90">
+        <v>88000</v>
+      </c>
+      <c r="G25" s="163">
+        <v>2015900000</v>
+      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="81">
+        <f t="shared" si="1"/>
+        <v>88000</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="Q25" s="88">
+        <v>42360</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" s="143"/>
+    </row>
+    <row r="26" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="107"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="110"/>
+    </row>
+    <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="188"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="66">
+        <f>SUM(E10:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <f>SUM(F17:F26)</f>
+        <v>685500</v>
+      </c>
+      <c r="G27" s="65">
+        <f>SUM(G10:G24)</f>
+        <v>23965006080</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="66">
+        <f>SUM(I17:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="66">
+        <f>SUM(J17:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="66">
+        <f>SUM(K17:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="66">
+        <f>SUM(L17:L26)</f>
+        <v>685500</v>
+      </c>
+      <c r="M27" s="66">
+        <f>SUM(M10:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66">
+        <f>SUM(O17:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="66">
+        <f>SUM(P17:P26)</f>
+        <v>2325.6111111111109</v>
+      </c>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="68"/>
+    </row>
+    <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="83">
+        <f t="shared" ref="A28:A42" si="4">ROW()-25</f>
+        <v>3</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="31">
+        <v>41870</v>
+      </c>
+      <c r="D28" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="29">
+        <v>1000000000</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29">
+        <v>1151700000</v>
+      </c>
+      <c r="H28" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I28" s="29">
+        <v>8340000</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29">
+        <f t="shared" ref="K28:K42" si="5">E28-I28</f>
+        <v>991660000</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29">
+        <f t="shared" ref="M28:M42" si="6">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <v>8180555.555555556</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28">
+        <f t="shared" ref="O28:O42" si="7">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" ref="P28:P42" si="8">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R28" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="83">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="31">
+        <v>41905</v>
+      </c>
+      <c r="D29" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2000000000</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29">
+        <v>1894165000</v>
+      </c>
+      <c r="H29" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I29" s="29">
+        <v>16670000</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29">
+        <f t="shared" si="5"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29">
+        <f t="shared" si="6"/>
+        <v>16361111.111111112</v>
+      </c>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R29" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S29" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="83">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="101">
+        <v>41934</v>
+      </c>
+      <c r="D30" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="102">
+        <v>1600000000</v>
+      </c>
+      <c r="F30" s="103"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I30" s="102">
+        <v>13340000</v>
+      </c>
+      <c r="J30" s="103"/>
+      <c r="K30" s="29">
+        <f t="shared" si="5"/>
+        <v>1586660000</v>
+      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="29">
+        <f t="shared" si="6"/>
+        <v>13088888.888888888</v>
+      </c>
+      <c r="N30" s="103"/>
+      <c r="O30" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R30" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="83">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="101">
+        <v>41963</v>
+      </c>
+      <c r="D31" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F31" s="103"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I31" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="103"/>
+      <c r="K31" s="29">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L31" s="103"/>
+      <c r="M31" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N31" s="103"/>
+      <c r="O31" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R31" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S31" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="83">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="101">
+        <v>41984</v>
+      </c>
+      <c r="D32" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F32" s="103"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I32" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="102">
+        <f t="shared" si="5"/>
+        <v>991670000</v>
+      </c>
+      <c r="L32" s="103"/>
+      <c r="M32" s="29">
+        <f t="shared" si="6"/>
+        <v>8180555.555555556</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R32" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S32" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="83">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="101">
+        <v>42033</v>
+      </c>
+      <c r="D33" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I33" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="102">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L33" s="103"/>
+      <c r="M33" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R33" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S33" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="83">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="101">
+        <v>42088</v>
+      </c>
+      <c r="D34" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="102">
+        <v>2000000000</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I34" s="102">
+        <v>16670000</v>
+      </c>
+      <c r="J34" s="103"/>
+      <c r="K34" s="102">
+        <f t="shared" si="5"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L34" s="103"/>
+      <c r="M34" s="29">
+        <f t="shared" si="6"/>
+        <v>16361111.111111112</v>
+      </c>
+      <c r="N34" s="103"/>
+      <c r="O34" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R34" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="83">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="101">
+        <v>42114</v>
+      </c>
+      <c r="D35" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="102">
+        <v>1400000000</v>
+      </c>
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I35" s="102">
+        <v>11670000</v>
+      </c>
+      <c r="J35" s="103"/>
+      <c r="K35" s="102">
+        <f t="shared" si="5"/>
+        <v>1388330000</v>
+      </c>
+      <c r="L35" s="103"/>
+      <c r="M35" s="29">
+        <f t="shared" si="6"/>
+        <v>11452777.777777778</v>
+      </c>
+      <c r="N35" s="103"/>
+      <c r="O35" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R35" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S35" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="83">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="101">
+        <v>42138</v>
+      </c>
+      <c r="D36" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F36" s="103"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I36" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J36" s="103"/>
+      <c r="K36" s="102">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L36" s="103"/>
+      <c r="M36" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N36" s="103"/>
+      <c r="O36" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R36" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S36" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="83">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="101">
+        <v>42164</v>
+      </c>
+      <c r="D37" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E37" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I37" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J37" s="103"/>
+      <c r="K37" s="102">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L37" s="103"/>
+      <c r="M37" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N37" s="103"/>
+      <c r="O37" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R37" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S37" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="83">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="101">
+        <v>42187</v>
+      </c>
+      <c r="D38" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E38" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I38" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J38" s="103"/>
+      <c r="K38" s="102">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L38" s="103"/>
+      <c r="M38" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N38" s="103"/>
+      <c r="O38" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R38" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S38" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="83">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="101">
+        <v>42195</v>
+      </c>
+      <c r="D39" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E39" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F39" s="103"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I39" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J39" s="103"/>
+      <c r="K39" s="102">
+        <f t="shared" si="5"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L39" s="103"/>
+      <c r="M39" s="29">
+        <f t="shared" si="6"/>
+        <v>12270833.333333334</v>
+      </c>
+      <c r="N39" s="103"/>
+      <c r="O39" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R39" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S39" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="83">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="101">
+        <v>42215</v>
+      </c>
+      <c r="D40" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E40" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F40" s="103"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I40" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J40" s="103"/>
+      <c r="K40" s="102">
+        <f t="shared" si="5"/>
+        <v>991670000</v>
+      </c>
+      <c r="L40" s="103"/>
+      <c r="M40" s="29">
+        <f t="shared" si="6"/>
+        <v>8180555.555555556</v>
+      </c>
+      <c r="N40" s="103"/>
+      <c r="O40" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R40" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S40" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="83">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="101">
+        <v>42229</v>
+      </c>
+      <c r="D41" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E41" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F41" s="103"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I41" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J41" s="103"/>
+      <c r="K41" s="102">
+        <f t="shared" si="5"/>
+        <v>991670000</v>
+      </c>
+      <c r="L41" s="103"/>
+      <c r="M41" s="29">
+        <f t="shared" si="6"/>
+        <v>8180555.555555556</v>
+      </c>
+      <c r="N41" s="103"/>
+      <c r="O41" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
+        <v>42357</v>
+      </c>
+      <c r="R41" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S41" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="83">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="101">
+        <v>42362</v>
+      </c>
+      <c r="D42" s="101">
+        <v>42545</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103">
+        <v>88000</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="103">
+        <f>F42</f>
+        <v>88000</v>
+      </c>
+      <c r="M42" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="103"/>
+      <c r="O42" s="28">
+        <f t="shared" si="7"/>
+        <v>224.88888888888889</v>
+      </c>
+      <c r="P42" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="63">
+        <v>42362</v>
+      </c>
+      <c r="R42" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="S42" s="100"/>
+    </row>
+    <row r="43" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="83"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="179"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="100"/>
+    </row>
+    <row r="44" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="55"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A45" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="188"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="65">
+        <f>SUM(E28:E44)</f>
+        <v>20000000000</v>
+      </c>
+      <c r="F45" s="66">
+        <f>SUM(F28:F44)</f>
+        <v>88000</v>
+      </c>
+      <c r="G45" s="65">
+        <f>SUM(G28:G44)</f>
+        <v>3045865000</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="65">
+        <f t="shared" ref="I45:P45" si="9">SUM(I28:I44)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J45" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="65">
+        <f t="shared" si="9"/>
+        <v>19833320000</v>
+      </c>
+      <c r="L45" s="66">
+        <f t="shared" si="9"/>
+        <v>88000</v>
+      </c>
+      <c r="M45" s="65">
+        <f t="shared" si="9"/>
+        <v>163611111.1111111</v>
+      </c>
+      <c r="N45" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="66">
+        <f t="shared" si="9"/>
+        <v>224.88888888888889</v>
+      </c>
+      <c r="P45" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="68"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="59" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S27"/>
   <mergeCells count="13">
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M2:Q2"/>
@@ -10253,47 +12479,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -10339,8 +12565,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -10571,10 +12797,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -11302,10 +13528,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -11645,10 +13871,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="180"/>
+      <c r="B32" s="188"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -11723,6 +13949,11 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -11730,11 +13961,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -11809,47 +14035,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -11895,8 +14121,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -12127,10 +14353,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -12813,10 +15039,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="180"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -13260,10 +15486,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="180"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -13338,11 +15564,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -13350,6 +15571,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -13424,47 +15650,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -13510,8 +15736,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -13742,10 +15968,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -14430,10 +16656,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="180"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -14879,10 +17105,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="180"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -14957,18 +17183,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -15043,47 +17269,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -15129,8 +17355,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -15361,10 +17587,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -16051,10 +18277,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="180"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -16600,10 +18826,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="180" t="s">
+      <c r="A35" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="180"/>
+      <c r="B35" s="188"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -16678,6 +18904,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -16685,11 +18916,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -16764,47 +18990,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -16850,8 +19076,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -17086,10 +19312,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -17345,10 +19571,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -17798,10 +20024,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -18420,10 +20646,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="180"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -18517,11 +20743,6 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -18530,6 +20751,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -18603,47 +20829,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -18689,8 +20915,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -18925,10 +21151,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -19191,10 +21417,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -19651,10 +21877,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20329,10 +22555,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="180" t="s">
+      <c r="A38" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="180"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -20512,47 +22738,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20598,8 +22824,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -20834,10 +23060,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -21102,10 +23328,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21562,10 +23788,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="180" t="s">
+      <c r="A25" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -22400,10 +24626,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="180" t="s">
+      <c r="A41" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="180"/>
+      <c r="B41" s="188"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -22583,47 +24809,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="188" t="s">
+      <c r="D2" s="190"/>
+      <c r="E2" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="187"/>
-      <c r="M2" s="185" t="s">
+      <c r="L2" s="186"/>
+      <c r="M2" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="183" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="184" t="s">
+      <c r="S2" s="183" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="184"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -22669,8 +24895,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="183"/>
-      <c r="S3" s="184"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="183"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -22902,10 +25128,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="189"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -23167,10 +25393,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="181"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -23670,10 +25896,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="180" t="s">
+      <c r="A26" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="180"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -24516,10 +26742,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="180"/>
+      <c r="B42" s="188"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">

--- a/SO SACH - LA/CONG NO/No Vay EIB.xlsx
+++ b/SO SACH - LA/CONG NO/No Vay EIB.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="106">
   <si>
     <t>Stt</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>1015LDS201600190</t>
+  </si>
+  <si>
+    <t>1402LDS201600285</t>
   </si>
 </sst>
 </file>
@@ -1607,6 +1610,18 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,18 +1636,6 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2063,47 +2066,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2149,8 +2152,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2381,10 +2384,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3171,10 +3174,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="188"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3514,10 +3517,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="188"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3592,6 +3595,11 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3599,11 +3607,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3678,47 +3681,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3764,8 +3767,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -3997,10 +4000,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4262,10 +4265,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4813,10 +4816,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5659,10 +5662,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="188"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5841,47 +5844,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5927,8 +5930,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6160,10 +6163,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6429,10 +6432,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6989,10 +6992,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7837,10 +7840,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="188"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -7958,10 +7961,10 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
+      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -8019,47 +8022,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8105,8 +8108,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8338,10 +8341,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -8654,10 +8657,10 @@
       <c r="S15" s="159"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="189" t="s">
+      <c r="A16" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="189"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -9160,10 +9163,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -10081,10 +10084,10 @@
       <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="188"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="65">
@@ -10202,10 +10205,10 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -10247,63 +10250,63 @@
       <c r="K1" s="5"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22">
-        <v>42388</v>
+        <v>42448</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22">
-        <v>42385</v>
+        <v>42445</v>
       </c>
       <c r="P1" s="22">
-        <v>42375</v>
+        <v>42435</v>
       </c>
       <c r="Q1" s="22">
-        <v>42387</v>
+        <v>42447</v>
       </c>
       <c r="R1" s="14"/>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -10349,8 +10352,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -10391,10 +10394,11 @@
       </c>
       <c r="P4" s="115">
         <f>IF((LEFT(B4,4)="1015"),F4*R4*DATEDIF(Q4,$P$1,"d")/360,0)</f>
-        <v>53.920625000000001</v>
+        <v>50.441874999999989</v>
       </c>
       <c r="Q4" s="44">
-        <v>42344</v>
+        <f>DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42406</v>
       </c>
       <c r="R4" s="116">
         <v>4.4999999999999998E-2</v>
@@ -10442,10 +10446,11 @@
       </c>
       <c r="P5" s="24">
         <f>IF((LEFT(B5,4)="1015"),F5*R5*DATEDIF(Q5,$P$1,"d")/360,0)</f>
-        <v>129.11263624999998</v>
+        <v>120.78278874999998</v>
       </c>
       <c r="Q5" s="44">
-        <v>42344</v>
+        <f t="shared" ref="Q5:Q7" si="0">DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42406</v>
       </c>
       <c r="R5" s="116">
         <v>4.4999999999999998E-2</v>
@@ -10493,10 +10498,11 @@
       </c>
       <c r="P6" s="24">
         <f>IF((LEFT(B6,4)="1015"),F6*R6*DATEDIF(Q6,$P$1,"d")/360,0)</f>
-        <v>79.499344999999991</v>
+        <v>74.370355000000004</v>
       </c>
       <c r="Q6" s="44">
-        <v>42344</v>
+        <f t="shared" si="0"/>
+        <v>42406</v>
       </c>
       <c r="R6" s="116">
         <v>4.4999999999999998E-2</v>
@@ -10544,10 +10550,11 @@
       </c>
       <c r="P7" s="24">
         <f>IF((LEFT(B7,4)="1015"),F7*R7*DATEDIF(Q7,$P$1,"d")/360,0)</f>
-        <v>111.28759749999998</v>
+        <v>104.10775249999998</v>
       </c>
       <c r="Q7" s="44">
-        <v>42344</v>
+        <f t="shared" si="0"/>
+        <v>42406</v>
       </c>
       <c r="R7" s="116">
         <v>4.4999999999999998E-2</v>
@@ -10578,10 +10585,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -10615,7 +10622,7 @@
       </c>
       <c r="P9" s="66">
         <f>SUM(P4:P7)</f>
-        <v>373.82020374999991</v>
+        <v>349.70277124999996</v>
       </c>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
@@ -10627,20 +10634,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="147" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="148">
-        <v>42234</v>
+        <v>42340</v>
       </c>
       <c r="D10" s="148">
-        <v>42418</v>
+        <v>42523</v>
       </c>
       <c r="E10" s="140"/>
       <c r="F10" s="140">
-        <v>52300</v>
+        <v>70900</v>
       </c>
       <c r="G10" s="149">
-        <v>1151700000</v>
+        <v>2019360000</v>
       </c>
       <c r="H10" s="148"/>
       <c r="I10" s="140"/>
@@ -10648,27 +10655,29 @@
       <c r="K10" s="140"/>
       <c r="L10" s="140">
         <f>F10-J10</f>
-        <v>52300</v>
+        <v>70900</v>
       </c>
       <c r="M10" s="140"/>
       <c r="N10" s="140"/>
       <c r="O10" s="140">
         <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
-        <v>180.14444444444445</v>
+        <v>228.45555555555555</v>
       </c>
       <c r="P10" s="140">
         <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="134">
-        <v>42354</v>
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
       </c>
       <c r="R10" s="150">
         <v>0.04</v>
       </c>
       <c r="S10" s="151" t="s">
-        <v>62</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="T10" s="143"/>
     </row>
     <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="135">
@@ -10676,20 +10685,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="137">
-        <v>42340</v>
+        <v>42346</v>
       </c>
       <c r="D11" s="137">
-        <v>42523</v>
+        <v>42529</v>
       </c>
       <c r="E11" s="138"/>
       <c r="F11" s="138">
-        <v>70900</v>
+        <v>62000</v>
       </c>
       <c r="G11" s="139">
-        <v>2019360000</v>
+        <v>1737190000</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="138"/>
@@ -10697,20 +10706,21 @@
       <c r="K11" s="140"/>
       <c r="L11" s="140">
         <f>F11-J11</f>
-        <v>70900</v>
+        <v>62000</v>
       </c>
       <c r="M11" s="138"/>
       <c r="N11" s="138"/>
       <c r="O11" s="138">
         <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
-        <v>354.5</v>
+        <v>199.77777777777777</v>
       </c>
       <c r="P11" s="138">
         <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="134">
-        <v>42340</v>
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
       </c>
       <c r="R11" s="141">
         <v>0.04</v>
@@ -10718,6 +10728,7 @@
       <c r="S11" s="142" t="s">
         <v>18</v>
       </c>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="135">
@@ -10725,17 +10736,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="137">
-        <v>42346</v>
+        <v>42348</v>
       </c>
       <c r="D12" s="137">
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="138">
-        <v>62000</v>
+        <v>33000</v>
       </c>
       <c r="G12" s="139">
         <v>1737190000</v>
@@ -10746,20 +10757,21 @@
       <c r="K12" s="140"/>
       <c r="L12" s="140">
         <f>F12-J12</f>
-        <v>62000</v>
+        <v>33000</v>
       </c>
       <c r="M12" s="138"/>
       <c r="N12" s="138"/>
       <c r="O12" s="138">
         <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
-        <v>268.66666666666669</v>
+        <v>106.33333333333333</v>
       </c>
       <c r="P12" s="138">
         <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="134">
-        <v>42346</v>
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
       </c>
       <c r="R12" s="141">
         <v>0.04</v>
@@ -10775,20 +10787,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="137">
-        <v>42348</v>
+        <v>42363</v>
       </c>
       <c r="D13" s="137">
-        <v>42531</v>
+        <v>42546</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="138">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="G13" s="139">
-        <v>1737190000</v>
+        <v>926064000</v>
       </c>
       <c r="H13" s="137"/>
       <c r="I13" s="138"/>
@@ -10796,20 +10808,21 @@
       <c r="K13" s="140"/>
       <c r="L13" s="140">
         <f>F13-J13</f>
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="M13" s="138"/>
       <c r="N13" s="138"/>
       <c r="O13" s="138">
         <f>IF((LEFT(B13,4)="1402"),F13*R13*DATEDIF(Q13,O$1,"d")/360,0)</f>
-        <v>135.66666666666666</v>
+        <v>138.55555555555554</v>
       </c>
       <c r="P13" s="138">
         <f>IF((LEFT(B13,4)="1015"),F13*R13*DATEDIF(Q13,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="134">
-        <v>42348</v>
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
       </c>
       <c r="R13" s="141">
         <v>0.04</v>
@@ -10817,6 +10830,7 @@
       <c r="S13" s="142" t="s">
         <v>18</v>
       </c>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="135">
@@ -10824,20 +10838,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C14" s="137">
-        <v>42363</v>
+        <v>42398</v>
       </c>
       <c r="D14" s="137">
-        <v>42546</v>
+        <v>42580</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="138">
-        <v>43000</v>
+        <v>52300</v>
       </c>
       <c r="G14" s="139">
-        <v>926064000</v>
+        <v>1151700000</v>
       </c>
       <c r="H14" s="137"/>
       <c r="I14" s="138"/>
@@ -10845,27 +10859,28 @@
       <c r="K14" s="140"/>
       <c r="L14" s="140">
         <f>F14-J14</f>
-        <v>43000</v>
+        <v>52300</v>
       </c>
       <c r="M14" s="138"/>
       <c r="N14" s="138"/>
       <c r="O14" s="138">
         <f>IF((LEFT(B14,4)="1402"),F14*R14*DATEDIF(Q14,O$1,"d")/360,0)</f>
-        <v>105.11111111111111</v>
+        <v>273.12222222222221</v>
       </c>
       <c r="P14" s="138">
         <f>IF((LEFT(B14,4)="1015"),F14*R14*DATEDIF(Q14,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="134">
-        <v>42363</v>
+        <v>42398</v>
       </c>
       <c r="R14" s="141">
         <v>0.04</v>
       </c>
       <c r="S14" s="142" t="s">
-        <v>18</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="152"/>
@@ -10889,10 +10904,10 @@
       <c r="S15" s="159"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="189" t="s">
+      <c r="A16" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="189"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -10902,7 +10917,7 @@
       </c>
       <c r="G16" s="65">
         <f>SUM(G9:G13)</f>
-        <v>6645440000</v>
+        <v>6419804000</v>
       </c>
       <c r="H16" s="66"/>
       <c r="I16" s="65"/>
@@ -10922,7 +10937,7 @@
       </c>
       <c r="O16" s="66">
         <f>SUM(O10:O15)</f>
-        <v>1044.088888888889</v>
+        <v>946.24444444444453</v>
       </c>
       <c r="P16" s="66">
         <f>SUM(P10:P15)</f>
@@ -10934,119 +10949,121 @@
     </row>
     <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="83">
-        <f t="shared" ref="A17:A25" si="0">ROW()-15</f>
+        <f>ROW()-15</f>
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>104</v>
+      <c r="B17" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="C17" s="30">
-        <v>42394</v>
+        <v>42247</v>
       </c>
       <c r="D17" s="30">
-        <v>42668</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
-        <v>97000</v>
-      </c>
-      <c r="G17" s="97">
-        <v>1965255000</v>
+        <v>42429</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>82000</v>
+      </c>
+      <c r="G17" s="92">
+        <v>1894165000</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81">
-        <f t="shared" ref="L17:L25" si="1">F17-J17</f>
-        <v>97000</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+        <f>F17-J17</f>
+        <v>82000</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="23">
-        <f t="shared" ref="O17:O25" si="2">IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" ref="P17:P25" si="3">IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
-        <v>334.11111111111109</v>
+        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <v>264.22222222222223</v>
       </c>
       <c r="Q17" s="44">
-        <v>42356</v>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
       </c>
       <c r="R17" s="46">
         <v>0.04</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>3</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>89</v>
+      <c r="B18" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="30">
-        <v>42247</v>
+        <v>42250</v>
       </c>
       <c r="D18" s="30">
-        <v>42429</v>
+        <v>42432</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23">
-        <v>82000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="92">
-        <v>1894165000</v>
+        <v>1997238540</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81">
-        <f t="shared" si="1"/>
-        <v>82000</v>
+        <f>F18-J18</f>
+        <v>40000</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="26">
-        <f t="shared" si="3"/>
-        <v>273.33333333333331</v>
+        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
+        <v>128.88888888888889</v>
       </c>
       <c r="Q18" s="44">
-        <v>42357</v>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
       </c>
       <c r="R18" s="46">
         <v>0.04</v>
       </c>
-      <c r="S18" s="37" t="s">
-        <v>66</v>
+      <c r="S18" s="38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>4</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="30">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="D19" s="30">
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G19" s="92">
         <v>1997238540</v>
@@ -11056,21 +11073,22 @@
       <c r="J19" s="23"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81">
-        <f t="shared" si="1"/>
-        <v>40000</v>
+        <f>F19-J19</f>
+        <v>50000</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f t="shared" si="3"/>
-        <v>128.88888888888889</v>
+        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
+        <v>161.11111111111111</v>
       </c>
       <c r="Q19" s="44">
-        <v>42358</v>
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
       </c>
       <c r="R19" s="46">
         <v>0.04</v>
@@ -11082,121 +11100,118 @@
     </row>
     <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>5</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>91</v>
+      <c r="B20" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="30">
-        <v>42251</v>
+        <v>42278</v>
       </c>
       <c r="D20" s="30">
-        <v>42433</v>
+        <v>42552</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23">
-        <v>50000</v>
+        <v>89500</v>
       </c>
       <c r="G20" s="92">
-        <v>1997238540</v>
+        <v>1894165000</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="81"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="81">
-        <f t="shared" si="1"/>
-        <v>50000</v>
+        <f>F20-J20</f>
+        <v>89500</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f t="shared" si="3"/>
-        <v>155.55555555555554</v>
+        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>288.38888888888891</v>
       </c>
       <c r="Q20" s="44">
-        <v>42359</v>
+        <f t="shared" ref="Q20:Q24" si="1">DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
       </c>
       <c r="R20" s="46">
         <v>0.04</v>
       </c>
       <c r="S20" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T20" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="T20" s="143"/>
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>6</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" s="30">
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="D21" s="30">
-        <v>42552</v>
+        <v>42553</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23">
-        <v>89500</v>
-      </c>
-      <c r="G21" s="92">
-        <v>1894165000</v>
-      </c>
+        <v>89000</v>
+      </c>
+      <c r="G21" s="92"/>
       <c r="H21" s="30"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="85"/>
       <c r="L21" s="81">
-        <f t="shared" si="1"/>
-        <v>89500</v>
+        <f>F21-J21</f>
+        <v>89000</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f t="shared" si="3"/>
-        <v>268.5</v>
+        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
+        <v>286.77777777777777</v>
       </c>
       <c r="Q21" s="44">
-        <v>42360</v>
+        <f t="shared" si="1"/>
+        <v>42418</v>
       </c>
       <c r="R21" s="46">
         <v>0.04</v>
       </c>
-      <c r="S21" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="T21" s="143"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>7</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="30">
-        <v>42279</v>
+        <v>42328</v>
       </c>
       <c r="D22" s="30">
-        <v>42553</v>
+        <v>42602</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23">
-        <v>89000</v>
+        <v>61000</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="30"/>
@@ -11204,21 +11219,22 @@
       <c r="J22" s="23"/>
       <c r="K22" s="85"/>
       <c r="L22" s="81">
-        <f t="shared" si="1"/>
-        <v>89000</v>
+        <f>F22-J22</f>
+        <v>61000</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="3"/>
-        <v>257.11111111111109</v>
+        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <v>196.55555555555554</v>
       </c>
       <c r="Q22" s="44">
-        <v>42361</v>
+        <f t="shared" si="1"/>
+        <v>42418</v>
       </c>
       <c r="R22" s="46">
         <v>0.04</v>
@@ -11228,21 +11244,21 @@
     </row>
     <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>8</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" s="30">
-        <v>42328</v>
+        <v>42339</v>
       </c>
       <c r="D23" s="30">
-        <v>42602</v>
+        <v>42614</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23">
-        <v>61000</v>
+        <v>89000</v>
       </c>
       <c r="G23" s="92"/>
       <c r="H23" s="30"/>
@@ -11250,21 +11266,22 @@
       <c r="J23" s="23"/>
       <c r="K23" s="85"/>
       <c r="L23" s="81">
-        <f t="shared" si="1"/>
-        <v>61000</v>
+        <f>F23-J23</f>
+        <v>89000</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f t="shared" si="3"/>
-        <v>169.44444444444446</v>
+        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <v>286.77777777777777</v>
       </c>
       <c r="Q23" s="44">
-        <v>42362</v>
+        <f t="shared" si="1"/>
+        <v>42418</v>
       </c>
       <c r="R23" s="46">
         <v>0.04</v>
@@ -11274,99 +11291,103 @@
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>9</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>97</v>
+      <c r="B24" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="30">
-        <v>42339</v>
+        <v>42360</v>
       </c>
       <c r="D24" s="30">
-        <v>42614</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23">
-        <v>89000</v>
-      </c>
-      <c r="G24" s="92"/>
+        <v>42635</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26">
+        <v>88000</v>
+      </c>
+      <c r="G24" s="97">
+        <v>2015900000</v>
+      </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="85"/>
       <c r="L24" s="81">
+        <f>F24-J24</f>
+        <v>88000</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="23">
+        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <v>283.55555555555554</v>
+      </c>
+      <c r="Q24" s="44">
         <f t="shared" si="1"/>
-        <v>89000</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <f t="shared" si="3"/>
-        <v>474.66666666666669</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>42339</v>
+        <v>42418</v>
       </c>
       <c r="R24" s="46">
         <v>0.04</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="41"/>
+      <c r="S24" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" s="143"/>
     </row>
     <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="83">
-        <f t="shared" si="0"/>
+        <f>ROW()-15</f>
         <v>10</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C25" s="88">
-        <v>42360</v>
+        <v>42394</v>
       </c>
       <c r="D25" s="30">
-        <v>42635</v>
+        <v>42668</v>
       </c>
       <c r="E25" s="90"/>
       <c r="F25" s="90">
-        <v>88000</v>
+        <v>97000</v>
       </c>
       <c r="G25" s="163">
-        <v>2015900000</v>
+        <v>1965255000</v>
       </c>
       <c r="H25" s="88"/>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
-      <c r="K25" s="85"/>
+      <c r="K25" s="81"/>
       <c r="L25" s="81">
-        <f t="shared" si="1"/>
-        <v>88000</v>
+        <f>F25-J25</f>
+        <v>97000</v>
       </c>
       <c r="M25" s="90"/>
       <c r="N25" s="90"/>
       <c r="O25" s="23">
-        <f t="shared" si="2"/>
+        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="3"/>
-        <v>264</v>
+        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
+        <v>571.22222222222217</v>
       </c>
       <c r="Q25" s="88">
-        <v>42360</v>
+        <v>42394</v>
       </c>
       <c r="R25" s="46">
         <v>0.04</v>
       </c>
-      <c r="S25" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="T25" s="143"/>
+      <c r="S25" s="37" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="107"/>
@@ -11390,10 +11411,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -11406,7 +11427,7 @@
       </c>
       <c r="G27" s="65">
         <f>SUM(G10:G24)</f>
-        <v>23965006080</v>
+        <v>23790015080</v>
       </c>
       <c r="H27" s="64"/>
       <c r="I27" s="66">
@@ -11436,7 +11457,7 @@
       </c>
       <c r="P27" s="66">
         <f>SUM(P17:P26)</f>
-        <v>2325.6111111111109</v>
+        <v>2467.5</v>
       </c>
       <c r="Q27" s="70"/>
       <c r="R27" s="71"/>
@@ -11444,7 +11465,7 @@
     </row>
     <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="83">
-        <f t="shared" ref="A28:A42" si="4">ROW()-25</f>
+        <f t="shared" ref="A28:A42" si="2">ROW()-25</f>
         <v>3</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -11471,25 +11492,26 @@
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29">
-        <f t="shared" ref="K28:K42" si="5">E28-I28</f>
+        <f t="shared" ref="K28:K42" si="3">E28-I28</f>
         <v>991660000</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29">
-        <f t="shared" ref="M28:M42" si="6">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
-        <v>8180555.555555556</v>
+        <f t="shared" ref="M28:M42" si="4">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <v>7652777.777777778</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="28">
-        <f t="shared" ref="O28:O42" si="7">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O28:O42" si="5">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" ref="P28:P42" si="8">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <f t="shared" ref="P28:P42" si="6">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="63">
-        <v>42357</v>
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42419</v>
       </c>
       <c r="R28" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11500,7 +11522,7 @@
     </row>
     <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -11527,25 +11549,26 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1983330000</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29">
-        <f t="shared" si="6"/>
-        <v>16361111.111111112</v>
+        <f t="shared" si="4"/>
+        <v>15305555.555555556</v>
       </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <v>42357</v>
+        <f t="shared" ref="Q29:Q42" si="7">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42419</v>
       </c>
       <c r="R29" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11556,7 +11579,7 @@
     </row>
     <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -11581,25 +11604,26 @@
       </c>
       <c r="J30" s="103"/>
       <c r="K30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1586660000</v>
       </c>
       <c r="L30" s="103"/>
       <c r="M30" s="29">
-        <f t="shared" si="6"/>
-        <v>13088888.888888888</v>
+        <f t="shared" si="4"/>
+        <v>12244444.444444444</v>
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R30" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11610,7 +11634,7 @@
     </row>
     <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -11635,25 +11659,26 @@
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R31" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11664,7 +11689,7 @@
     </row>
     <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -11689,25 +11714,26 @@
       </c>
       <c r="J32" s="103"/>
       <c r="K32" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>991670000</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="29">
-        <f t="shared" si="6"/>
-        <v>8180555.555555556</v>
+        <f t="shared" si="4"/>
+        <v>7652777.777777778</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R32" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11718,7 +11744,7 @@
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -11743,25 +11769,26 @@
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R33" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11772,7 +11799,7 @@
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B34" s="52" t="s">
@@ -11797,25 +11824,26 @@
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1983330000</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="29">
-        <f t="shared" si="6"/>
-        <v>16361111.111111112</v>
+        <f t="shared" si="4"/>
+        <v>15305555.555555556</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R34" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11826,7 +11854,7 @@
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B35" s="52" t="s">
@@ -11851,25 +11879,26 @@
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1388330000</v>
       </c>
       <c r="L35" s="103"/>
       <c r="M35" s="29">
-        <f t="shared" si="6"/>
-        <v>11452777.777777778</v>
+        <f t="shared" si="4"/>
+        <v>10713888.888888888</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R35" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11880,7 +11909,7 @@
     </row>
     <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -11905,25 +11934,26 @@
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L36" s="103"/>
       <c r="M36" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R36" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11934,7 +11964,7 @@
     </row>
     <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -11959,25 +11989,26 @@
       </c>
       <c r="J37" s="103"/>
       <c r="K37" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L37" s="103"/>
       <c r="M37" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R37" s="47">
         <v>9.5000000000000001E-2</v>
@@ -11988,7 +12019,7 @@
     </row>
     <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B38" s="52" t="s">
@@ -12013,25 +12044,26 @@
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L38" s="103"/>
       <c r="M38" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R38" s="47">
         <v>9.5000000000000001E-2</v>
@@ -12042,7 +12074,7 @@
     </row>
     <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -12067,25 +12099,26 @@
       </c>
       <c r="J39" s="103"/>
       <c r="K39" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1487500000</v>
       </c>
       <c r="L39" s="103"/>
       <c r="M39" s="29">
-        <f t="shared" si="6"/>
-        <v>12270833.333333334</v>
+        <f t="shared" si="4"/>
+        <v>11479166.666666666</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R39" s="47">
         <v>9.5000000000000001E-2</v>
@@ -12096,7 +12129,7 @@
     </row>
     <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -12121,25 +12154,26 @@
       </c>
       <c r="J40" s="103"/>
       <c r="K40" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>991670000</v>
       </c>
       <c r="L40" s="103"/>
       <c r="M40" s="29">
-        <f t="shared" si="6"/>
-        <v>8180555.555555556</v>
+        <f t="shared" si="4"/>
+        <v>7652777.777777778</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R40" s="47">
         <v>9.5000000000000001E-2</v>
@@ -12150,7 +12184,7 @@
     </row>
     <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -12175,25 +12209,26 @@
       </c>
       <c r="J41" s="103"/>
       <c r="K41" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>991670000</v>
       </c>
       <c r="L41" s="103"/>
       <c r="M41" s="29">
-        <f t="shared" si="6"/>
-        <v>8180555.555555556</v>
+        <f t="shared" si="4"/>
+        <v>7652777.777777778</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="63">
-        <v>42357</v>
+        <v>42419</v>
       </c>
       <c r="R41" s="47">
         <v>9.5000000000000001E-2</v>
@@ -12204,7 +12239,7 @@
     </row>
     <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -12225,7 +12260,7 @@
       <c r="I42" s="102"/>
       <c r="J42" s="103"/>
       <c r="K42" s="102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L42" s="103">
@@ -12233,20 +12268,21 @@
         <v>88000</v>
       </c>
       <c r="M42" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N42" s="103"/>
       <c r="O42" s="28">
-        <f t="shared" si="7"/>
-        <v>224.88888888888889</v>
+        <f>IF((LEFT(B42,4)="1402"),F42*R42*DATEDIF(Q42,O$1,"d")/360,0)</f>
+        <v>283.55555555555554</v>
       </c>
       <c r="P42" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="63">
-        <v>42362</v>
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
       </c>
       <c r="R42" s="47">
         <v>0.04</v>
@@ -12296,10 +12332,10 @@
       <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="188"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="65">
@@ -12316,35 +12352,35 @@
       </c>
       <c r="H45" s="66"/>
       <c r="I45" s="65">
-        <f t="shared" ref="I45:P45" si="9">SUM(I28:I44)</f>
+        <f t="shared" ref="I45:P45" si="8">SUM(I28:I44)</f>
         <v>166680000</v>
       </c>
       <c r="J45" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K45" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>19833320000</v>
       </c>
       <c r="L45" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>88000</v>
       </c>
       <c r="M45" s="65">
-        <f t="shared" si="9"/>
-        <v>163611111.1111111</v>
+        <f t="shared" si="8"/>
+        <v>153055555.55555558</v>
       </c>
       <c r="N45" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O45" s="66">
-        <f t="shared" si="9"/>
-        <v>224.88888888888889</v>
+        <f t="shared" si="8"/>
+        <v>283.55555555555554</v>
       </c>
       <c r="P45" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q45" s="70"/>
@@ -12388,6 +12424,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:S27"/>
+  <sortState ref="A17:T25">
+    <sortCondition ref="C17:C25"/>
+  </sortState>
   <mergeCells count="13">
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M2:Q2"/>
@@ -12479,47 +12518,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -12565,8 +12604,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -12797,10 +12836,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -13528,10 +13567,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="188"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -13871,10 +13910,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="188"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -13949,11 +13988,6 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -13961,6 +13995,11 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -14035,47 +14074,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -14121,8 +14160,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -14353,10 +14392,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -15039,10 +15078,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="188"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -15486,10 +15525,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="188"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -15564,6 +15603,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -15571,11 +15615,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -15650,47 +15689,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -15736,8 +15775,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -15968,10 +16007,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -16656,10 +16695,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="188"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -17105,10 +17144,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="188"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -17183,18 +17222,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -17269,47 +17308,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -17355,8 +17394,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -17587,10 +17626,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -18277,10 +18316,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="188"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -18826,10 +18865,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="188" t="s">
+      <c r="A35" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="188"/>
+      <c r="B35" s="183"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -18904,11 +18943,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -18916,6 +18950,11 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -18990,47 +19029,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -19076,8 +19115,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -19312,10 +19351,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -19571,10 +19610,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -20024,10 +20063,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="188"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20646,10 +20685,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="188"/>
+      <c r="B37" s="183"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -20743,6 +20782,11 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -20751,11 +20795,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -20829,47 +20868,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20915,8 +20954,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -21151,10 +21190,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -21417,10 +21456,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21877,10 +21916,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="188"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -22555,10 +22594,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="188"/>
+      <c r="B38" s="183"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -22738,47 +22777,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -22824,8 +22863,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -23060,10 +23099,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -23328,10 +23367,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -23788,10 +23827,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="188"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -24626,10 +24665,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="188"/>
+      <c r="B41" s="183"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -24809,47 +24848,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="183" t="s">
+      <c r="A2" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="185" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="186" t="s">
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="190"/>
+      <c r="M2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="191" t="s">
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="183" t="s">
+      <c r="S2" s="187" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -24895,8 +24934,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="183"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -25128,10 +25167,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="189"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -25393,10 +25432,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="189" t="s">
+      <c r="A15" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="189"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -25896,10 +25935,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="188"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -26742,10 +26781,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="188"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">

--- a/SO SACH - LA/CONG NO/No Vay EIB.xlsx
+++ b/SO SACH - LA/CONG NO/No Vay EIB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="12"/>
+    <workbookView xWindow="4485" yWindow="1530" windowWidth="8415" windowHeight="5640" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="T01 15" sheetId="33" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="T11" sheetId="45" r:id="rId11"/>
     <sheet name="12" sheetId="46" r:id="rId12"/>
     <sheet name="12 (2)" sheetId="47" r:id="rId13"/>
+    <sheet name="12 (3)" sheetId="48" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12'!$A$3:$S$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12 (2)'!$A$3:$S$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12 (3)'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T01 15'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'T02 15'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'T03 15'!$A$3:$S$24</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="108">
   <si>
     <t>Stt</t>
   </si>
@@ -359,6 +361,12 @@
   </si>
   <si>
     <t>1402LDS201600285</t>
+  </si>
+  <si>
+    <t>1015LDS201600434</t>
+  </si>
+  <si>
+    <t>1015LDS201600429</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1086,7 @@
     <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,17 +1618,14 @@
     <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,6 +1641,18 @@
     </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2066,47 +2083,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -2152,8 +2169,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -2384,10 +2401,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -3174,10 +3191,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="183"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -3517,10 +3534,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="183"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -3595,11 +3612,6 @@
   </sheetData>
   <autoFilter ref="A3:S26"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A9:B9"/>
@@ -3607,6 +3619,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -3681,47 +3698,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -3767,8 +3784,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -4000,10 +4017,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -4265,10 +4282,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -4816,10 +4833,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="183"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -5662,10 +5679,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="183"/>
+      <c r="B43" s="191"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -5844,47 +5861,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -5930,8 +5947,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -6163,10 +6180,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -6432,10 +6449,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -6992,10 +7009,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="183"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -7840,10 +7857,10 @@
       <c r="S42" s="37"/>
     </row>
     <row r="43" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="183"/>
+      <c r="B43" s="191"/>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="65">
@@ -8022,47 +8039,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -8108,8 +8125,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -8341,10 +8358,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -8657,10 +8674,10 @@
       <c r="S15" s="159"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -9163,10 +9180,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="183"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -10084,10 +10101,10 @@
       <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="183"/>
+      <c r="B45" s="191"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="65">
@@ -10204,7 +10221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -10266,47 +10283,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -10352,8 +10369,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -10585,10 +10602,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -10904,10 +10921,10 @@
       <c r="S15" s="159"/>
     </row>
     <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -10949,7 +10966,7 @@
     </row>
     <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" ref="A17:A25" si="1">ROW()-15</f>
         <v>2</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -10973,17 +10990,17 @@
       <c r="J17" s="23"/>
       <c r="K17" s="81"/>
       <c r="L17" s="81">
-        <f>F17-J17</f>
+        <f t="shared" ref="L17:L25" si="2">F17-J17</f>
         <v>82000</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23">
-        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O17:O25" si="3">IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="26">
-        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <f t="shared" ref="P17:P25" si="4">IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
         <v>264.22222222222223</v>
       </c>
       <c r="Q17" s="44">
@@ -10999,7 +11016,7 @@
     </row>
     <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -11023,17 +11040,17 @@
       <c r="J18" s="23"/>
       <c r="K18" s="81"/>
       <c r="L18" s="81">
-        <f>F18-J18</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23">
-        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" s="26">
-        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>128.88888888888889</v>
       </c>
       <c r="Q18" s="44">
@@ -11049,7 +11066,7 @@
     </row>
     <row r="19" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -11073,17 +11090,17 @@
       <c r="J19" s="23"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81">
-        <f>F19-J19</f>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23">
-        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>161.11111111111111</v>
       </c>
       <c r="Q19" s="44">
@@ -11100,7 +11117,7 @@
     </row>
     <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -11124,21 +11141,21 @@
       <c r="J20" s="23"/>
       <c r="K20" s="85"/>
       <c r="L20" s="81">
-        <f>F20-J20</f>
+        <f t="shared" si="2"/>
         <v>89500</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
-        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>288.38888888888891</v>
       </c>
       <c r="Q20" s="44">
-        <f t="shared" ref="Q20:Q24" si="1">DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <f t="shared" ref="Q20:Q24" si="5">DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
         <v>42418</v>
       </c>
       <c r="R20" s="46">
@@ -11151,7 +11168,7 @@
     </row>
     <row r="21" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B21" s="49" t="s">
@@ -11173,21 +11190,21 @@
       <c r="J21" s="23"/>
       <c r="K21" s="85"/>
       <c r="L21" s="81">
-        <f>F21-J21</f>
+        <f t="shared" si="2"/>
         <v>89000</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
-        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>286.77777777777777</v>
       </c>
       <c r="Q21" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42418</v>
       </c>
       <c r="R21" s="46">
@@ -11197,7 +11214,7 @@
     </row>
     <row r="22" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -11219,21 +11236,21 @@
       <c r="J22" s="23"/>
       <c r="K22" s="85"/>
       <c r="L22" s="81">
-        <f>F22-J22</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
-        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>196.55555555555554</v>
       </c>
       <c r="Q22" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42418</v>
       </c>
       <c r="R22" s="46">
@@ -11244,7 +11261,7 @@
     </row>
     <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -11266,21 +11283,21 @@
       <c r="J23" s="23"/>
       <c r="K23" s="85"/>
       <c r="L23" s="81">
-        <f>F23-J23</f>
+        <f t="shared" si="2"/>
         <v>89000</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
-        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="26">
-        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>286.77777777777777</v>
       </c>
       <c r="Q23" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42418</v>
       </c>
       <c r="R23" s="46">
@@ -11291,7 +11308,7 @@
     </row>
     <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -11315,21 +11332,21 @@
       <c r="J24" s="26"/>
       <c r="K24" s="85"/>
       <c r="L24" s="81">
-        <f>F24-J24</f>
+        <f t="shared" si="2"/>
         <v>88000</v>
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="23">
-        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="26">
-        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>283.55555555555554</v>
       </c>
       <c r="Q24" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42418</v>
       </c>
       <c r="R24" s="46">
@@ -11342,7 +11359,7 @@
     </row>
     <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="83">
-        <f>ROW()-15</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B25" s="50" t="s">
@@ -11366,17 +11383,17 @@
       <c r="J25" s="90"/>
       <c r="K25" s="81"/>
       <c r="L25" s="81">
-        <f>F25-J25</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
       <c r="M25" s="90"/>
       <c r="N25" s="90"/>
       <c r="O25" s="23">
-        <f>IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(Q25,O$1,"d")/360,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f>IF((LEFT(B25,4)="1015"),F25*R25*DATEDIF(Q25,Q$1,"d")/360,0)</f>
+        <f t="shared" si="4"/>
         <v>571.22222222222217</v>
       </c>
       <c r="Q25" s="88">
@@ -11411,10 +11428,10 @@
       <c r="S26" s="110"/>
     </row>
     <row r="27" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="183"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="69"/>
       <c r="D27" s="69"/>
       <c r="E27" s="66">
@@ -11465,7 +11482,7 @@
     </row>
     <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="83">
-        <f t="shared" ref="A28:A42" si="2">ROW()-25</f>
+        <f t="shared" ref="A28:A42" si="6">ROW()-25</f>
         <v>3</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -11492,21 +11509,21 @@
       </c>
       <c r="J28" s="28"/>
       <c r="K28" s="29">
-        <f t="shared" ref="K28:K42" si="3">E28-I28</f>
+        <f t="shared" ref="K28:K42" si="7">E28-I28</f>
         <v>991660000</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="29">
-        <f t="shared" ref="M28:M42" si="4">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
+        <f t="shared" ref="M28:M42" si="8">IF((LEFT(B28,4)="1402"),E28*R28*DATEDIF(Q28,$M$1,"d")/360,0)</f>
         <v>7652777.777777778</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="28">
-        <f t="shared" ref="O28:O42" si="5">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
+        <f t="shared" ref="O28:O41" si="9">IF((LEFT(B28,4)="1402"),F28*R28*DATEDIF(Q28,O$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" ref="P28:P42" si="6">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
+        <f t="shared" ref="P28:P42" si="10">IF((LEFT(B28,4)="1015"),F28*R28*DATEDIF(Q28,Q$1,"d")/360,0)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="63">
@@ -11522,7 +11539,7 @@
     </row>
     <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -11549,25 +11566,25 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1983330000</v>
       </c>
       <c r="L29" s="28"/>
       <c r="M29" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15305555.555555556</v>
       </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <f t="shared" ref="Q29:Q42" si="7">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <f t="shared" ref="Q29:Q41" si="11">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
         <v>42419</v>
       </c>
       <c r="R29" s="47">
@@ -11579,7 +11596,7 @@
     </row>
     <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -11604,25 +11621,25 @@
       </c>
       <c r="J30" s="103"/>
       <c r="K30" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1586660000</v>
       </c>
       <c r="L30" s="103"/>
       <c r="M30" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12244444.444444444</v>
       </c>
       <c r="N30" s="103"/>
       <c r="O30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q30" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R30" s="47">
@@ -11634,7 +11651,7 @@
     </row>
     <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -11659,25 +11676,25 @@
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N31" s="103"/>
       <c r="O31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q31" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R31" s="47">
@@ -11689,7 +11706,7 @@
     </row>
     <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -11714,25 +11731,25 @@
       </c>
       <c r="J32" s="103"/>
       <c r="K32" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7652777.777777778</v>
       </c>
       <c r="N32" s="103"/>
       <c r="O32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q32" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R32" s="47">
@@ -11744,7 +11761,7 @@
     </row>
     <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -11769,25 +11786,25 @@
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N33" s="103"/>
       <c r="O33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P33" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q33" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R33" s="47">
@@ -11799,7 +11816,7 @@
     </row>
     <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B34" s="52" t="s">
@@ -11824,25 +11841,25 @@
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1983330000</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15305555.555555556</v>
       </c>
       <c r="N34" s="103"/>
       <c r="O34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P34" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q34" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R34" s="47">
@@ -11854,7 +11871,7 @@
     </row>
     <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B35" s="52" t="s">
@@ -11879,25 +11896,25 @@
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1388330000</v>
       </c>
       <c r="L35" s="103"/>
       <c r="M35" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10713888.888888888</v>
       </c>
       <c r="N35" s="103"/>
       <c r="O35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P35" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q35" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R35" s="47">
@@ -11909,7 +11926,7 @@
     </row>
     <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -11934,25 +11951,25 @@
       </c>
       <c r="J36" s="103"/>
       <c r="K36" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L36" s="103"/>
       <c r="M36" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N36" s="103"/>
       <c r="O36" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P36" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q36" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R36" s="47">
@@ -11964,7 +11981,7 @@
     </row>
     <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A37" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -11989,25 +12006,25 @@
       </c>
       <c r="J37" s="103"/>
       <c r="K37" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L37" s="103"/>
       <c r="M37" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N37" s="103"/>
       <c r="O37" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P37" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q37" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R37" s="47">
@@ -12019,7 +12036,7 @@
     </row>
     <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A38" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B38" s="52" t="s">
@@ -12044,25 +12061,25 @@
       </c>
       <c r="J38" s="103"/>
       <c r="K38" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L38" s="103"/>
       <c r="M38" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N38" s="103"/>
       <c r="O38" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P38" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q38" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R38" s="47">
@@ -12074,7 +12091,7 @@
     </row>
     <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A39" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -12099,25 +12116,25 @@
       </c>
       <c r="J39" s="103"/>
       <c r="K39" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1487500000</v>
       </c>
       <c r="L39" s="103"/>
       <c r="M39" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11479166.666666666</v>
       </c>
       <c r="N39" s="103"/>
       <c r="O39" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P39" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q39" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R39" s="47">
@@ -12129,7 +12146,7 @@
     </row>
     <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A40" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -12154,25 +12171,25 @@
       </c>
       <c r="J40" s="103"/>
       <c r="K40" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L40" s="103"/>
       <c r="M40" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7652777.777777778</v>
       </c>
       <c r="N40" s="103"/>
       <c r="O40" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P40" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q40" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R40" s="47">
@@ -12184,7 +12201,7 @@
     </row>
     <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A41" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -12209,25 +12226,25 @@
       </c>
       <c r="J41" s="103"/>
       <c r="K41" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>991670000</v>
       </c>
       <c r="L41" s="103"/>
       <c r="M41" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7652777.777777778</v>
       </c>
       <c r="N41" s="103"/>
       <c r="O41" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P41" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q41" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>42419</v>
       </c>
       <c r="R41" s="47">
@@ -12239,7 +12256,7 @@
     </row>
     <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
       <c r="A42" s="83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -12260,7 +12277,7 @@
       <c r="I42" s="102"/>
       <c r="J42" s="103"/>
       <c r="K42" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L42" s="103">
@@ -12268,7 +12285,7 @@
         <v>88000</v>
       </c>
       <c r="M42" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42" s="103"/>
@@ -12277,7 +12294,7 @@
         <v>283.55555555555554</v>
       </c>
       <c r="P42" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q42" s="63">
@@ -12332,10 +12349,10 @@
       <c r="S44" s="37"/>
     </row>
     <row r="45" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="183"/>
+      <c r="B45" s="191"/>
       <c r="C45" s="69"/>
       <c r="D45" s="69"/>
       <c r="E45" s="65">
@@ -12352,35 +12369,35 @@
       </c>
       <c r="H45" s="66"/>
       <c r="I45" s="65">
-        <f t="shared" ref="I45:P45" si="8">SUM(I28:I44)</f>
+        <f t="shared" ref="I45:P45" si="12">SUM(I28:I44)</f>
         <v>166680000</v>
       </c>
       <c r="J45" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K45" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19833320000</v>
       </c>
       <c r="L45" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>88000</v>
       </c>
       <c r="M45" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>153055555.55555558</v>
       </c>
       <c r="N45" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>283.55555555555554</v>
       </c>
       <c r="P45" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45" s="70"/>
@@ -12435,6 +12452,2201 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A27:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="6.75" style="13" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
+        <v>42448</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22">
+        <v>42445</v>
+      </c>
+      <c r="P1" s="22">
+        <v>42435</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>42447</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="183" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
+    </row>
+    <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="113">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="44">
+        <v>40200</v>
+      </c>
+      <c r="D4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
+        <v>13915</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="54">
+        <v>13915</v>
+      </c>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82">
+        <f>F4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115">
+        <f>IF((LEFT(B4,4)="1402"),E4*Q4*DATEDIF(P4,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="115">
+        <f>IF((LEFT(B4,4)="1015"),F4*R4*DATEDIF(Q4,$P$1,"d")/360,0)</f>
+        <v>50.441874999999989</v>
+      </c>
+      <c r="Q4" s="44">
+        <f>DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42406</v>
+      </c>
+      <c r="R4" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S4" s="117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="53">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D5" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
+        <v>33319.39</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="28">
+        <v>33319.39</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23">
+        <f>F5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24">
+        <f>IF((LEFT(B5,4)="1402"),E5*Q5*DATEDIF(P5,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
+        <f>IF((LEFT(B5,4)="1015"),F5*R5*DATEDIF(Q5,$P$1,"d")/360,0)</f>
+        <v>120.78278874999998</v>
+      </c>
+      <c r="Q5" s="44">
+        <f t="shared" ref="Q5:Q7" si="0">DATEVALUE("6/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42406</v>
+      </c>
+      <c r="R5" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="53">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D6" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
+        <v>20515.96</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="28">
+        <v>20515.96</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23">
+        <f>F6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24">
+        <f>IF((LEFT(B6,4)="1402"),E6*Q6*DATEDIF(P6,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="24">
+        <f>IF((LEFT(B6,4)="1015"),F6*R6*DATEDIF(Q6,$P$1,"d")/360,0)</f>
+        <v>74.370355000000004</v>
+      </c>
+      <c r="Q6" s="44">
+        <f t="shared" si="0"/>
+        <v>42406</v>
+      </c>
+      <c r="R6" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="53">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30">
+        <v>40234</v>
+      </c>
+      <c r="D7" s="30">
+        <v>42649</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="44">
+        <v>42649</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="28">
+        <v>28719.379999999997</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23">
+        <f>F7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <f>IF((LEFT(B7,4)="1402"),E7*Q7*DATEDIF(P7,$P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="24">
+        <f>IF((LEFT(B7,4)="1015"),F7*R7*DATEDIF(Q7,$P$1,"d")/360,0)</f>
+        <v>104.10775249999998</v>
+      </c>
+      <c r="Q7" s="44">
+        <f t="shared" si="0"/>
+        <v>42406</v>
+      </c>
+      <c r="R7" s="116">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="192"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66">
+        <f>SUM(F4:F8)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="G9" s="65">
+        <f>SUM(G4:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66">
+        <f>SUM(J4:J7)</f>
+        <v>96469.73000000001</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66">
+        <f>SUM(L4:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65">
+        <f>SUM(N4:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
+        <f>SUM(O4:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="66">
+        <f>SUM(P4:P7)</f>
+        <v>349.70277124999996</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="68"/>
+    </row>
+    <row r="10" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="135">
+        <f>ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="148">
+        <v>42340</v>
+      </c>
+      <c r="D10" s="148">
+        <v>42523</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140">
+        <v>70900</v>
+      </c>
+      <c r="G10" s="149">
+        <v>2019360000</v>
+      </c>
+      <c r="H10" s="148"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140">
+        <f>F10-J10</f>
+        <v>70900</v>
+      </c>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140">
+        <f>IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(Q10,O$1,"d")/360,0)</f>
+        <v>228.45555555555555</v>
+      </c>
+      <c r="P10" s="140">
+        <f>IF((LEFT(B10,4)="1015"),F10*R10*DATEDIF(Q10,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
+      </c>
+      <c r="R10" s="150">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="143"/>
+    </row>
+    <row r="11" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="135">
+        <f>ROW()-9</f>
+        <v>2</v>
+      </c>
+      <c r="B11" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="137">
+        <v>42346</v>
+      </c>
+      <c r="D11" s="137">
+        <v>42529</v>
+      </c>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138">
+        <v>62000</v>
+      </c>
+      <c r="G11" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140">
+        <f>F11-J11</f>
+        <v>62000</v>
+      </c>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138">
+        <f>IF((LEFT(B11,4)="1402"),F11*R11*DATEDIF(Q11,O$1,"d")/360,0)</f>
+        <v>199.77777777777777</v>
+      </c>
+      <c r="P11" s="138">
+        <f>IF((LEFT(B11,4)="1015"),F11*R11*DATEDIF(Q11,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
+      </c>
+      <c r="R11" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S11" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="33"/>
+    </row>
+    <row r="12" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="135">
+        <f>ROW()-9</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="137">
+        <v>42348</v>
+      </c>
+      <c r="D12" s="137">
+        <v>42531</v>
+      </c>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138">
+        <v>33000</v>
+      </c>
+      <c r="G12" s="139">
+        <v>1737190000</v>
+      </c>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140">
+        <f>F12-J12</f>
+        <v>33000</v>
+      </c>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138">
+        <f>IF((LEFT(B12,4)="1402"),F12*R12*DATEDIF(Q12,O$1,"d")/360,0)</f>
+        <v>106.33333333333333</v>
+      </c>
+      <c r="P12" s="138">
+        <f>IF((LEFT(B12,4)="1015"),F12*R12*DATEDIF(Q12,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
+      </c>
+      <c r="R12" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S12" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="33"/>
+    </row>
+    <row r="13" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="135">
+        <f>ROW()-9</f>
+        <v>4</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="137">
+        <v>42363</v>
+      </c>
+      <c r="D13" s="137">
+        <v>42546</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138">
+        <v>43000</v>
+      </c>
+      <c r="G13" s="139">
+        <v>926064000</v>
+      </c>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140">
+        <f>F13-J13</f>
+        <v>43000</v>
+      </c>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138">
+        <f>IF((LEFT(B13,4)="1402"),F13*R13*DATEDIF(Q13,O$1,"d")/360,0)</f>
+        <v>138.55555555555554</v>
+      </c>
+      <c r="P13" s="138">
+        <f>IF((LEFT(B13,4)="1015"),F13*R13*DATEDIF(Q13,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="134">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
+      </c>
+      <c r="R13" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S13" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="41"/>
+    </row>
+    <row r="14" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="135">
+        <f>ROW()-9</f>
+        <v>5</v>
+      </c>
+      <c r="B14" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="137">
+        <v>42398</v>
+      </c>
+      <c r="D14" s="137">
+        <v>42580</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138">
+        <v>52300</v>
+      </c>
+      <c r="G14" s="139">
+        <v>1151700000</v>
+      </c>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140">
+        <f>F14-J14</f>
+        <v>52300</v>
+      </c>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138">
+        <f>IF((LEFT(B14,4)="1402"),F14*R14*DATEDIF(Q14,O$1,"d")/360,0)</f>
+        <v>273.12222222222221</v>
+      </c>
+      <c r="P14" s="138">
+        <f>IF((LEFT(B14,4)="1015"),F14*R14*DATEDIF(Q14,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="134">
+        <v>42398</v>
+      </c>
+      <c r="R14" s="141">
+        <v>0.04</v>
+      </c>
+      <c r="S14" s="142" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="152"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="159"/>
+    </row>
+    <row r="16" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="192"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
+        <f>SUM(F10:F15)</f>
+        <v>261200</v>
+      </c>
+      <c r="G16" s="65">
+        <f>SUM(G9:G13)</f>
+        <v>6419804000</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66">
+        <f>SUM(J10:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66">
+        <f>SUM(L10:L15)</f>
+        <v>261200</v>
+      </c>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65">
+        <f>SUM(N9:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="66">
+        <f>SUM(O10:O15)</f>
+        <v>946.24444444444453</v>
+      </c>
+      <c r="P16" s="66">
+        <f>SUM(P10:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="83">
+        <f>ROW()-16</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="30">
+        <v>42278</v>
+      </c>
+      <c r="D17" s="30">
+        <v>42552</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
+        <v>89500</v>
+      </c>
+      <c r="G17" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="81">
+        <f>F17-J17</f>
+        <v>89500</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23">
+        <f>IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(Q17,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <f>IF((LEFT(B17,4)="1015"),F17*R17*DATEDIF(Q17,Q$1,"d")/360,0)</f>
+        <v>288.38888888888891</v>
+      </c>
+      <c r="Q17" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="143"/>
+    </row>
+    <row r="18" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="83">
+        <f t="shared" ref="A18:A24" si="1">ROW()-16</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="30">
+        <v>42279</v>
+      </c>
+      <c r="D18" s="30">
+        <v>42553</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
+        <v>89000</v>
+      </c>
+      <c r="G18" s="92"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="81">
+        <f>F18-J18</f>
+        <v>89000</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23">
+        <f>IF((LEFT(B18,4)="1402"),F18*R18*DATEDIF(Q18,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <f>IF((LEFT(B18,4)="1015"),F18*R18*DATEDIF(Q18,Q$1,"d")/360,0)</f>
+        <v>286.77777777777777</v>
+      </c>
+      <c r="Q18" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S18" s="37"/>
+      <c r="T18" s="41"/>
+    </row>
+    <row r="19" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="83">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="30">
+        <v>42328</v>
+      </c>
+      <c r="D19" s="30">
+        <v>42602</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>61000</v>
+      </c>
+      <c r="G19" s="92"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="81">
+        <f>F19-J19</f>
+        <v>61000</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23">
+        <f>IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(Q19,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <f>IF((LEFT(B19,4)="1015"),F19*R19*DATEDIF(Q19,Q$1,"d")/360,0)</f>
+        <v>196.55555555555554</v>
+      </c>
+      <c r="Q19" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:20" s="41" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="83">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="30">
+        <v>42339</v>
+      </c>
+      <c r="D20" s="30">
+        <v>42614</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <v>89000</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="81">
+        <f>F20-J20</f>
+        <v>89000</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(Q20,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <f>IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>286.77777777777777</v>
+      </c>
+      <c r="Q20" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:20" s="143" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="83">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="30">
+        <v>42360</v>
+      </c>
+      <c r="D21" s="30">
+        <v>42635</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26">
+        <v>88000</v>
+      </c>
+      <c r="G21" s="97">
+        <v>2015900000</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="81">
+        <f>F21-J21</f>
+        <v>88000</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="23">
+        <f>IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(Q21,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <f>IF((LEFT(B21,4)="1015"),F21*R21*DATEDIF(Q21,Q$1,"d")/360,0)</f>
+        <v>283.55555555555554</v>
+      </c>
+      <c r="Q21" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="83">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="30">
+        <v>42394</v>
+      </c>
+      <c r="D22" s="30">
+        <v>42668</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
+        <v>97000</v>
+      </c>
+      <c r="G22" s="97">
+        <v>1965255000</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81">
+        <f>F22-J22</f>
+        <v>97000</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="23">
+        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(Q22,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <f>IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <v>571.22222222222217</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>42394</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="83">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="30">
+        <v>42436</v>
+      </c>
+      <c r="D23" s="30">
+        <v>42711</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>82000</v>
+      </c>
+      <c r="G23" s="92">
+        <v>1894165000</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81">
+        <f>F23-J23</f>
+        <v>82000</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23">
+        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(Q23,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <f>IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <v>264.22222222222223</v>
+      </c>
+      <c r="Q23" s="44">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="83">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="88">
+        <v>42437</v>
+      </c>
+      <c r="D24" s="30">
+        <v>42712</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89">
+        <v>90000</v>
+      </c>
+      <c r="G24" s="91">
+        <v>1997238540</v>
+      </c>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81">
+        <f>F24-J24</f>
+        <v>90000</v>
+      </c>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="23">
+        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(Q24,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <f>IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <v>290</v>
+      </c>
+      <c r="Q24" s="88">
+        <f>DATEVALUE("18/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42418</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0.04</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="107"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="110"/>
+    </row>
+    <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="191"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="66">
+        <f>SUM(E10:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="66">
+        <f>SUM(F17:F25)</f>
+        <v>685500</v>
+      </c>
+      <c r="G26" s="65">
+        <f>SUM(G10:G23)</f>
+        <v>21760793000</v>
+      </c>
+      <c r="H26" s="64"/>
+      <c r="I26" s="66">
+        <f>SUM(I17:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="66">
+        <f>SUM(J17:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="66">
+        <f>SUM(K17:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="66">
+        <f>SUM(L17:L25)</f>
+        <v>685500</v>
+      </c>
+      <c r="M26" s="66">
+        <f>SUM(M10:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66">
+        <f>SUM(O17:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="66">
+        <f>SUM(P17:P25)</f>
+        <v>2467.5</v>
+      </c>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="68"/>
+    </row>
+    <row r="27" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="83">
+        <f>ROW()-26</f>
+        <v>1</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="31">
+        <v>41870</v>
+      </c>
+      <c r="D27" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1000000000</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
+        <v>1151700000</v>
+      </c>
+      <c r="H27" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I27" s="29">
+        <v>8340000</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29">
+        <f t="shared" ref="K27:K41" si="2">E27-I27</f>
+        <v>991660000</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27:M41" si="3">IF((LEFT(B27,4)="1402"),E27*R27*DATEDIF(Q27,$M$1,"d")/360,0)</f>
+        <v>7652777.777777778</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28">
+        <f t="shared" ref="O27:O40" si="4">IF((LEFT(B27,4)="1402"),F27*R27*DATEDIF(Q27,O$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" ref="P27:P41" si="5">IF((LEFT(B27,4)="1015"),F27*R27*DATEDIF(Q27,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63">
+        <f>DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42419</v>
+      </c>
+      <c r="R27" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S27" s="98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="83">
+        <f t="shared" ref="A28:A41" si="6">ROW()-26</f>
+        <v>2</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="31">
+        <v>41905</v>
+      </c>
+      <c r="D28" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2000000000</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29">
+        <v>1894165000</v>
+      </c>
+      <c r="H28" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I28" s="29">
+        <v>16670000</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29">
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29">
+        <f t="shared" si="3"/>
+        <v>15305555.555555556</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <f t="shared" ref="Q28:Q40" si="7">DATEVALUE("19/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42419</v>
+      </c>
+      <c r="R28" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="83">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="101">
+        <v>41934</v>
+      </c>
+      <c r="D29" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="102">
+        <v>1600000000</v>
+      </c>
+      <c r="F29" s="103"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I29" s="102">
+        <v>13340000</v>
+      </c>
+      <c r="J29" s="103"/>
+      <c r="K29" s="29">
+        <f t="shared" si="2"/>
+        <v>1586660000</v>
+      </c>
+      <c r="L29" s="103"/>
+      <c r="M29" s="29">
+        <f t="shared" si="3"/>
+        <v>12244444.444444444</v>
+      </c>
+      <c r="N29" s="103"/>
+      <c r="O29" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R29" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S29" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="83">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="101">
+        <v>41963</v>
+      </c>
+      <c r="D30" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F30" s="103"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I30" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="103"/>
+      <c r="K30" s="29">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N30" s="103"/>
+      <c r="O30" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R30" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="83">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="101">
+        <v>41984</v>
+      </c>
+      <c r="D31" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F31" s="103"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I31" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J31" s="103"/>
+      <c r="K31" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L31" s="103"/>
+      <c r="M31" s="29">
+        <f t="shared" si="3"/>
+        <v>7652777.777777778</v>
+      </c>
+      <c r="N31" s="103"/>
+      <c r="O31" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R31" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S31" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="83">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="101">
+        <v>42033</v>
+      </c>
+      <c r="D32" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F32" s="103"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I32" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L32" s="103"/>
+      <c r="M32" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N32" s="103"/>
+      <c r="O32" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R32" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S32" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="83">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="101">
+        <v>42088</v>
+      </c>
+      <c r="D33" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="102">
+        <v>2000000000</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="31">
+        <v>42632</v>
+      </c>
+      <c r="I33" s="102">
+        <v>16670000</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="102">
+        <f t="shared" si="2"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L33" s="103"/>
+      <c r="M33" s="29">
+        <f t="shared" si="3"/>
+        <v>15305555.555555556</v>
+      </c>
+      <c r="N33" s="103"/>
+      <c r="O33" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R33" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S33" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="83">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="101">
+        <v>42114</v>
+      </c>
+      <c r="D34" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="102">
+        <v>1400000000</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I34" s="102">
+        <v>11670000</v>
+      </c>
+      <c r="J34" s="103"/>
+      <c r="K34" s="102">
+        <f t="shared" si="2"/>
+        <v>1388330000</v>
+      </c>
+      <c r="L34" s="103"/>
+      <c r="M34" s="29">
+        <f t="shared" si="3"/>
+        <v>10713888.888888888</v>
+      </c>
+      <c r="N34" s="103"/>
+      <c r="O34" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R34" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="83">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="101">
+        <v>42138</v>
+      </c>
+      <c r="D35" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F35" s="103"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I35" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J35" s="103"/>
+      <c r="K35" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L35" s="103"/>
+      <c r="M35" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N35" s="103"/>
+      <c r="O35" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R35" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S35" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="83">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="101">
+        <v>42164</v>
+      </c>
+      <c r="D36" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F36" s="103"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I36" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J36" s="103"/>
+      <c r="K36" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L36" s="103"/>
+      <c r="M36" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N36" s="103"/>
+      <c r="O36" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R36" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S36" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="83">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="101">
+        <v>42187</v>
+      </c>
+      <c r="D37" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E37" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F37" s="103"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I37" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J37" s="103"/>
+      <c r="K37" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L37" s="103"/>
+      <c r="M37" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N37" s="103"/>
+      <c r="O37" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R37" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S37" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="83">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="101">
+        <v>42195</v>
+      </c>
+      <c r="D38" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E38" s="102">
+        <v>1500000000</v>
+      </c>
+      <c r="F38" s="103"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I38" s="102">
+        <v>12500000</v>
+      </c>
+      <c r="J38" s="103"/>
+      <c r="K38" s="102">
+        <f t="shared" si="2"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L38" s="103"/>
+      <c r="M38" s="29">
+        <f t="shared" si="3"/>
+        <v>11479166.666666666</v>
+      </c>
+      <c r="N38" s="103"/>
+      <c r="O38" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R38" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S38" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="83">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="101">
+        <v>42215</v>
+      </c>
+      <c r="D39" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E39" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F39" s="103"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I39" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J39" s="103"/>
+      <c r="K39" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L39" s="103"/>
+      <c r="M39" s="29">
+        <f t="shared" si="3"/>
+        <v>7652777.777777778</v>
+      </c>
+      <c r="N39" s="103"/>
+      <c r="O39" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R39" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S39" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="83">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="101">
+        <v>42229</v>
+      </c>
+      <c r="D40" s="31">
+        <v>46253</v>
+      </c>
+      <c r="E40" s="102">
+        <v>1000000000</v>
+      </c>
+      <c r="F40" s="103"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="101">
+        <v>42632</v>
+      </c>
+      <c r="I40" s="102">
+        <v>8330000</v>
+      </c>
+      <c r="J40" s="103"/>
+      <c r="K40" s="102">
+        <f t="shared" si="2"/>
+        <v>991670000</v>
+      </c>
+      <c r="L40" s="103"/>
+      <c r="M40" s="29">
+        <f t="shared" si="3"/>
+        <v>7652777.777777778</v>
+      </c>
+      <c r="N40" s="103"/>
+      <c r="O40" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="63">
+        <f t="shared" si="7"/>
+        <v>42419</v>
+      </c>
+      <c r="R40" s="47">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S40" s="100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="83">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="101">
+        <v>42362</v>
+      </c>
+      <c r="D41" s="101">
+        <v>42545</v>
+      </c>
+      <c r="E41" s="102"/>
+      <c r="F41" s="103">
+        <v>88000</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="103">
+        <f>F41</f>
+        <v>88000</v>
+      </c>
+      <c r="M41" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="103"/>
+      <c r="O41" s="28">
+        <f>IF((LEFT(B41,4)="1402"),F41*R41*DATEDIF(Q41,O$1,"d")/360,0)</f>
+        <v>283.55555555555554</v>
+      </c>
+      <c r="P41" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="63">
+        <f>DATEVALUE("16/"&amp;(MONTH($P$1)-1)&amp;"/16")</f>
+        <v>42416</v>
+      </c>
+      <c r="R41" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="S41" s="100"/>
+    </row>
+    <row r="42" spans="1:19" s="40" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="83"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="179"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="100"/>
+    </row>
+    <row r="43" spans="1:19" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="55"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="191"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="65">
+        <f>SUM(E27:E43)</f>
+        <v>20000000000</v>
+      </c>
+      <c r="F44" s="66">
+        <f>SUM(F27:F43)</f>
+        <v>88000</v>
+      </c>
+      <c r="G44" s="65">
+        <f>SUM(G27:G43)</f>
+        <v>3045865000</v>
+      </c>
+      <c r="H44" s="66"/>
+      <c r="I44" s="65">
+        <f t="shared" ref="I44:P44" si="8">SUM(I27:I43)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J44" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="65">
+        <f t="shared" si="8"/>
+        <v>19833320000</v>
+      </c>
+      <c r="L44" s="66">
+        <f t="shared" si="8"/>
+        <v>88000</v>
+      </c>
+      <c r="M44" s="65">
+        <f t="shared" si="8"/>
+        <v>153055555.55555558</v>
+      </c>
+      <c r="N44" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="66">
+        <f t="shared" si="8"/>
+        <v>283.55555555555554</v>
+      </c>
+      <c r="P44" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="68"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="58" spans="1:19" s="16" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S26"/>
+  <sortState ref="A17:T24">
+    <sortCondition ref="C17:C24"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
@@ -12518,47 +14730,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -12604,8 +14816,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -12836,10 +15048,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -13567,10 +15779,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -13910,10 +16122,10 @@
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="183"/>
+      <c r="B32" s="191"/>
       <c r="C32" s="69"/>
       <c r="D32" s="69"/>
       <c r="E32" s="65">
@@ -13988,6 +16200,11 @@
   </sheetData>
   <autoFilter ref="A3:S25"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -13995,11 +16212,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -14074,47 +16286,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -14160,8 +16372,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -14392,10 +16604,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -15078,10 +17290,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="183"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -15525,10 +17737,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="183"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -15603,11 +17815,6 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
@@ -15615,6 +17822,11 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.41" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -15689,47 +17901,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -15775,8 +17987,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -16007,10 +18219,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -16695,10 +18907,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="183"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -17144,10 +19356,10 @@
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="183"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="69"/>
       <c r="D33" s="69"/>
       <c r="E33" s="65">
@@ -17222,18 +19434,18 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.26" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -17308,47 +19520,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -17394,8 +19606,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -17626,10 +19838,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -18316,10 +20528,10 @@
       <c r="S23" s="110"/>
     </row>
     <row r="24" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="183"/>
+      <c r="B24" s="191"/>
       <c r="C24" s="69"/>
       <c r="D24" s="69"/>
       <c r="E24" s="66">
@@ -18865,10 +21077,10 @@
       <c r="S34" s="37"/>
     </row>
     <row r="35" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="183" t="s">
+      <c r="A35" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="183"/>
+      <c r="B35" s="191"/>
       <c r="C35" s="69"/>
       <c r="D35" s="69"/>
       <c r="E35" s="65">
@@ -18943,6 +21155,11 @@
   </sheetData>
   <autoFilter ref="A3:S24"/>
   <mergeCells count="12">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
@@ -18950,11 +21167,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.18" right="0" top="0.63" bottom="0" header="0" footer="0"/>
@@ -19029,47 +21241,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -19115,8 +21327,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -19351,10 +21563,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -19610,10 +21822,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -20063,10 +22275,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -20685,10 +22897,10 @@
       <c r="S36" s="37"/>
     </row>
     <row r="37" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="183"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="65">
@@ -20782,11 +22994,6 @@
     <sortCondition ref="C10:C13"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -20795,6 +23002,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -20868,47 +23080,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -20954,8 +23166,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -21190,10 +23402,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -21456,10 +23668,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -21916,10 +24128,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -22594,10 +24806,10 @@
       <c r="S37" s="37"/>
     </row>
     <row r="38" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="183" t="s">
+      <c r="A38" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="183"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="69"/>
       <c r="D38" s="69"/>
       <c r="E38" s="65">
@@ -22777,47 +24989,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -22863,8 +25075,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -23099,10 +25311,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -23367,10 +25579,10 @@
       <c r="T14" s="143"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -23827,10 +26039,10 @@
       <c r="S24" s="110"/>
     </row>
     <row r="25" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="66">
@@ -24665,10 +26877,10 @@
       <c r="S40" s="37"/>
     </row>
     <row r="41" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="183"/>
+      <c r="B41" s="191"/>
       <c r="C41" s="69"/>
       <c r="D41" s="69"/>
       <c r="E41" s="65">
@@ -24848,47 +27060,47 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="73" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="187" t="s">
+      <c r="A2" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="191" t="s">
+      <c r="D2" s="193"/>
+      <c r="E2" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="189" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="190" t="s">
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="188" t="s">
+      <c r="L2" s="189"/>
+      <c r="M2" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="186" t="s">
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="187" t="s">
+      <c r="S2" s="186" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="73" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="187"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="74" t="s">
         <v>19</v>
       </c>
@@ -24934,8 +27146,8 @@
       <c r="Q3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="186"/>
     </row>
     <row r="4" spans="1:20" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="113">
@@ -25167,10 +27379,10 @@
       <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="65"/>
@@ -25432,10 +27644,10 @@
       <c r="S14" s="159"/>
     </row>
     <row r="15" spans="1:20" s="61" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="65"/>
@@ -25935,10 +28147,10 @@
       <c r="S25" s="110"/>
     </row>
     <row r="26" spans="1:20" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="183"/>
+      <c r="B26" s="191"/>
       <c r="C26" s="69"/>
       <c r="D26" s="69"/>
       <c r="E26" s="66">
@@ -26781,10 +28993,10 @@
       <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" s="36" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="183"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="69"/>
       <c r="D42" s="69"/>
       <c r="E42" s="65">
